--- a/maps/MO/MO20C_candidates.xlsx
+++ b/maps/MO/MO20C_candidates.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/MO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F567B201-D65B-9E4E-B455-E747A5CBAED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BB070C-4D15-2F46-B670-DB5F44B74C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="2160" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
+    <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="NC20C_candidates" localSheetId="1">DATA!$A$1:$I$101</definedName>
-    <definedName name="WA20C_energies" localSheetId="1">DATA!$A$1:$I$101</definedName>
+    <definedName name="NC20C_candidates" localSheetId="1">DATA!$A$1:$I$98</definedName>
+    <definedName name="WA20C_energies" localSheetId="1">DATA!$A$1:$I$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{0A068D4B-DECE-2C47-9741-13AD2A4BEF96}" name="NC20C_candidates1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/NC/NC20C_candidates.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/MO/MO20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField type="text"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
   <si>
     <t>#</t>
   </si>
@@ -129,48 +129,21 @@
     <t>POPDEV</t>
   </si>
   <si>
-    <t>MO20C_I019K01N08</t>
-  </si>
-  <si>
-    <t>0.000000</t>
-  </si>
-  <si>
     <t>MO20C_I055K01N08</t>
   </si>
   <si>
-    <t>0.065795</t>
-  </si>
-  <si>
     <t>MO20C_I020K01N08</t>
   </si>
   <si>
-    <t>0.069727</t>
-  </si>
-  <si>
     <t>MO20C_I011K01N08</t>
   </si>
   <si>
-    <t>0.070232</t>
-  </si>
-  <si>
     <t>MO20C_I043K01N08</t>
   </si>
   <si>
-    <t>0.095074</t>
-  </si>
-  <si>
-    <t>MO20C_I035K01N08</t>
-  </si>
-  <si>
-    <t>0.130165</t>
-  </si>
-  <si>
     <t>MO20C_I009K01N08</t>
   </si>
   <si>
-    <t>0.069809</t>
-  </si>
-  <si>
     <t>MO20C_I032K01N08</t>
   </si>
   <si>
@@ -204,108 +177,54 @@
     <t>MO20C_I027K01N08</t>
   </si>
   <si>
-    <t>0.161468</t>
-  </si>
-  <si>
     <t>MO20C_I006K01N08</t>
   </si>
   <si>
-    <t>0.162456</t>
-  </si>
-  <si>
     <t>MO20C_I084K01N08</t>
   </si>
   <si>
-    <t>0.066867</t>
-  </si>
-  <si>
-    <t>MO20C_I090K01N08</t>
-  </si>
-  <si>
     <t>MO20C_I070K01N08</t>
   </si>
   <si>
-    <t>0.202895</t>
-  </si>
-  <si>
     <t>MO20C_I087K01N08</t>
   </si>
   <si>
-    <t>0.215902</t>
-  </si>
-  <si>
     <t>MO20C_I099K01N08</t>
   </si>
   <si>
-    <t>0.203501</t>
-  </si>
-  <si>
     <t>MO20C_I098K01N08</t>
   </si>
   <si>
-    <t>0.143725</t>
-  </si>
-  <si>
     <t>MO20C_I066K01N08</t>
   </si>
   <si>
-    <t>0.140431</t>
-  </si>
-  <si>
     <t>MO20C_I040K01N08</t>
   </si>
   <si>
-    <t>0.140112</t>
-  </si>
-  <si>
     <t>MO20C_I016K01N08</t>
   </si>
   <si>
-    <t>0.065093</t>
-  </si>
-  <si>
     <t>MO20C_I064K01N08</t>
   </si>
   <si>
-    <t>0.065188</t>
-  </si>
-  <si>
     <t>MO20C_I030K01N08</t>
   </si>
   <si>
-    <t>0.064396</t>
-  </si>
-  <si>
     <t>MO20C_I048K01N08</t>
   </si>
   <si>
-    <t>0.187009</t>
-  </si>
-  <si>
     <t>MO20C_I014K01N08</t>
   </si>
   <si>
-    <t>0.166531</t>
-  </si>
-  <si>
     <t>MO20C_I071K01N08</t>
   </si>
   <si>
-    <t>0.182568</t>
-  </si>
-  <si>
     <t>MO20C_I078K01N08</t>
   </si>
   <si>
-    <t>0.066073</t>
-  </si>
-  <si>
     <t>MO20C_I004K01N08</t>
   </si>
   <si>
-    <t>0.065817</t>
-  </si>
-  <si>
     <t>MO20C_I025K01N08</t>
   </si>
   <si>
@@ -315,9 +234,6 @@
     <t>MO20C_I000K01N08</t>
   </si>
   <si>
-    <t>0.066312</t>
-  </si>
-  <si>
     <t>MO20C_I002K01N08</t>
   </si>
   <si>
@@ -360,292 +276,148 @@
     <t>MO20C_I047K01N08</t>
   </si>
   <si>
-    <t>0.136558</t>
-  </si>
-  <si>
     <t>MO20C_I086K01N08</t>
   </si>
   <si>
-    <t>0.173334</t>
-  </si>
-  <si>
     <t>MO20C_I059K01N08</t>
   </si>
   <si>
-    <t>0.185551</t>
-  </si>
-  <si>
     <t>MO20C_I010K01N08</t>
   </si>
   <si>
-    <t>0.186984</t>
-  </si>
-  <si>
     <t>MO20C_I045K01N08</t>
   </si>
   <si>
-    <t>0.041979</t>
-  </si>
-  <si>
     <t>MO20C_I080K01N08</t>
   </si>
   <si>
-    <t>0.146813</t>
-  </si>
-  <si>
     <t>MO20C_I091K01N08</t>
   </si>
   <si>
-    <t>0.188812</t>
-  </si>
-  <si>
     <t>MO20C_I037K01N08</t>
   </si>
   <si>
-    <t>0.104014</t>
-  </si>
-  <si>
     <t>MO20C_I021K01N08</t>
   </si>
   <si>
-    <t>0.169063</t>
-  </si>
-  <si>
     <t>MO20C_I033K01N08</t>
   </si>
   <si>
-    <t>0.168808</t>
-  </si>
-  <si>
     <t>MO20C_I095K01N08</t>
   </si>
   <si>
-    <t>0.163612</t>
-  </si>
-  <si>
     <t>MO20C_I015K01N08</t>
   </si>
   <si>
-    <t>0.168251</t>
-  </si>
-  <si>
     <t>MO20C_I017K01N08</t>
   </si>
   <si>
-    <t>0.146232</t>
-  </si>
-  <si>
     <t>MO20C_I077K01N08</t>
   </si>
   <si>
-    <t>0.147094</t>
-  </si>
-  <si>
     <t>MO20C_I076K01N08</t>
   </si>
   <si>
-    <t>0.245753</t>
-  </si>
-  <si>
     <t>MO20C_I031K01N08</t>
   </si>
   <si>
-    <t>0.145186</t>
-  </si>
-  <si>
     <t>MO20C_I003K01N08</t>
   </si>
   <si>
-    <t>0.149635</t>
-  </si>
-  <si>
     <t>MO20C_I057K01N08</t>
   </si>
   <si>
-    <t>0.151149</t>
-  </si>
-  <si>
     <t>MO20C_I029K01N08</t>
   </si>
   <si>
-    <t>0.144854</t>
-  </si>
-  <si>
     <t>MO20C_I092K01N08</t>
   </si>
   <si>
-    <t>0.186442</t>
-  </si>
-  <si>
     <t>MO20C_I007K01N08</t>
   </si>
   <si>
-    <t>0.202684</t>
-  </si>
-  <si>
     <t>MO20C_I012K01N08</t>
   </si>
   <si>
-    <t>0.267146</t>
-  </si>
-  <si>
     <t>MO20C_I075K01N08</t>
   </si>
   <si>
-    <t>0.560955</t>
-  </si>
-  <si>
     <t>MO20C_I051K01N08</t>
   </si>
   <si>
-    <t>0.551262</t>
-  </si>
-  <si>
     <t>MO20C_I024K01N08</t>
   </si>
   <si>
-    <t>0.557959</t>
-  </si>
-  <si>
     <t>MO20C_I093K01N08</t>
   </si>
   <si>
-    <t>0.556658</t>
-  </si>
-  <si>
     <t>MO20C_I041K01N08</t>
   </si>
   <si>
-    <t>0.549437</t>
-  </si>
-  <si>
     <t>MO20C_I023K01N08</t>
   </si>
   <si>
-    <t>0.549867</t>
-  </si>
-  <si>
     <t>MO20C_I085K01N08</t>
   </si>
   <si>
-    <t>0.563195</t>
-  </si>
-  <si>
     <t>MO20C_I094K01N08</t>
   </si>
   <si>
-    <t>0.490140</t>
-  </si>
-  <si>
     <t>MO20C_I072K01N08</t>
   </si>
   <si>
-    <t>0.443695</t>
-  </si>
-  <si>
     <t>MO20C_I008K01N08</t>
   </si>
   <si>
-    <t>0.478945</t>
-  </si>
-  <si>
     <t>MO20C_I060K01N08</t>
   </si>
   <si>
-    <t>0.493474</t>
-  </si>
-  <si>
     <t>MO20C_I018K01N08</t>
   </si>
   <si>
-    <t>0.493405</t>
-  </si>
-  <si>
     <t>MO20C_I050K01N08</t>
   </si>
   <si>
     <t>MO20C_I034K01N08</t>
   </si>
   <si>
-    <t>0.541741</t>
-  </si>
-  <si>
     <t>MO20C_I026K01N08</t>
   </si>
   <si>
-    <t>0.461248</t>
-  </si>
-  <si>
     <t>MO20C_I088K01N08</t>
   </si>
   <si>
-    <t>0.451631</t>
-  </si>
-  <si>
     <t>MO20C_I081K01N08</t>
   </si>
   <si>
-    <t>0.539906</t>
-  </si>
-  <si>
     <t>MO20C_I062K01N08</t>
   </si>
   <si>
-    <t>0.533770</t>
-  </si>
-  <si>
     <t>MO20C_I074K01N08</t>
   </si>
   <si>
-    <t>0.533949</t>
-  </si>
-  <si>
     <t>MO20C_I044K01N08</t>
   </si>
   <si>
-    <t>0.537115</t>
-  </si>
-  <si>
     <t>MO20C_I063K01N08</t>
   </si>
   <si>
-    <t>0.578299</t>
-  </si>
-  <si>
     <t>MO20C_I058K01N08</t>
   </si>
   <si>
-    <t>0.443899</t>
-  </si>
-  <si>
     <t>MO20C_I001K01N08</t>
   </si>
   <si>
-    <t>0.484978</t>
-  </si>
-  <si>
     <t>MO20C_I082K01N08</t>
   </si>
   <si>
-    <t>0.512047</t>
-  </si>
-  <si>
     <t>MO20C_I065K01N08</t>
   </si>
   <si>
-    <t>0.459583</t>
-  </si>
-  <si>
     <t>MO20C_I028K01N08</t>
   </si>
   <si>
-    <t>0.515484</t>
-  </si>
-  <si>
     <t>MO20C_I068K01N08</t>
-  </si>
-  <si>
-    <t>0.515516</t>
   </si>
 </sst>
 </file>
@@ -777,11 +549,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1127,23 +899,23 @@
         <v>10</v>
       </c>
       <c r="B4" s="22">
-        <f>MIN(DATA!E$2:E$101)</f>
-        <v>1.9599999999999999E-3</v>
+        <f>MIN(DATA!E$2:E$98)</f>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="C4" s="8">
-        <f>MIN(DATA!F$2:F$101)</f>
+        <f>MIN(DATA!F$2:F$98)</f>
         <v>0</v>
       </c>
       <c r="D4" s="8">
-        <f>MIN(DATA!G$2:G$101)</f>
-        <v>0.78837199999999996</v>
+        <f>MIN(DATA!G$2:G$98)</f>
+        <v>0.63905400000000001</v>
       </c>
       <c r="E4" s="8">
-        <f>MIN(DATA!H$2:H$101)</f>
+        <f>MIN(DATA!H$2:H$98)</f>
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <f>MIN(DATA!I$2:I$101)</f>
+        <f>MIN(DATA!I$2:I$98)</f>
         <v>0</v>
       </c>
     </row>
@@ -1152,24 +924,24 @@
         <v>11</v>
       </c>
       <c r="B5" s="22">
-        <f>MAX(DATA!E$2:E$101)</f>
-        <v>2.247E-2</v>
+        <f>MAX(DATA!E$2:E$98)</f>
+        <v>2.8740000000000002E-2</v>
       </c>
       <c r="C5" s="8">
-        <f>MAX(DATA!F$2:F$101)</f>
-        <v>1.3835999999999999E-2</v>
+        <f>MAX(DATA!F$2:F$98)</f>
+        <v>0.15712999999999999</v>
       </c>
       <c r="D5" s="8">
-        <f>MAX(DATA!G$2:G$101)</f>
+        <f>MAX(DATA!G$2:G$98)</f>
         <v>1</v>
       </c>
       <c r="E5" s="8">
-        <f>MAX(DATA!H$2:H$101)</f>
-        <v>0.76469600000000004</v>
+        <f>MAX(DATA!H$2:H$98)</f>
+        <v>1.1432910000000001</v>
       </c>
       <c r="F5" s="8">
-        <f>MAX(DATA!I$2:I$101)</f>
-        <v>0</v>
+        <f>MAX(DATA!I$2:I$98)</f>
+        <v>1.0625150000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1177,24 +949,24 @@
         <v>12</v>
       </c>
       <c r="B6" s="22">
-        <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>1.1463600000000008E-2</v>
+        <f>AVERAGE(DATA!E$2:E$98)</f>
+        <v>3.7693814432989687E-3</v>
       </c>
       <c r="C6" s="8">
-        <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>4.9237800000000026E-3</v>
+        <f>AVERAGE(DATA!F$2:F$98)</f>
+        <v>1.6578793814432988E-2</v>
       </c>
       <c r="D6" s="8">
-        <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>0.91306989999999988</v>
+        <f>AVERAGE(DATA!G$2:G$98)</f>
+        <v>0.78676312371134038</v>
       </c>
       <c r="E6" s="8">
-        <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>0.40578025000000006</v>
-      </c>
-      <c r="F6" s="8" t="e">
-        <f>AVERAGE(DATA!I$2:I$101)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(DATA!H$2:H$98)</f>
+        <v>0.74662972164948416</v>
+      </c>
+      <c r="F6" s="8">
+        <f>AVERAGE(DATA!I$2:I$98)</f>
+        <v>0.58579731958762871</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1202,24 +974,24 @@
         <v>13</v>
       </c>
       <c r="B7" s="22">
-        <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>1.163E-2</v>
+        <f>MEDIAN(DATA!E$2:E$98)</f>
+        <v>3.3899999999999998E-3</v>
       </c>
       <c r="C7" s="8">
-        <f>MEDIAN(DATA!F$2:F$101)</f>
-        <v>2.643E-3</v>
+        <f>MEDIAN(DATA!F$2:F$98)</f>
+        <v>9.7199999999999995E-3</v>
       </c>
       <c r="D7" s="8">
-        <f>MEDIAN(DATA!G$2:G$101)</f>
-        <v>0.93531200000000003</v>
+        <f>MEDIAN(DATA!G$2:G$98)</f>
+        <v>0.76504000000000005</v>
       </c>
       <c r="E7" s="8">
-        <f>MEDIAN(DATA!H$2:H$101)</f>
-        <v>0.36875350000000001</v>
-      </c>
-      <c r="F7" s="8" t="e">
-        <f>MEDIAN(DATA!I$2:I$101)</f>
-        <v>#NUM!</v>
+        <f>MEDIAN(DATA!H$2:H$98)</f>
+        <v>0.80137599999999998</v>
+      </c>
+      <c r="F7" s="8">
+        <f>MEDIAN(DATA!I$2:I$98)</f>
+        <v>0.64093500000000003</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1227,24 +999,24 @@
         <v>14</v>
       </c>
       <c r="B8" s="27">
-        <f>STDEV(DATA!E$2:E$101)</f>
-        <v>5.1532119080915737E-3</v>
+        <f>STDEV(DATA!E$2:E$98)</f>
+        <v>3.1349218539014219E-3</v>
       </c>
       <c r="C8" s="13">
-        <f>STDEV(DATA!F$2:F$101)</f>
-        <v>4.0991456059264143E-3</v>
+        <f>STDEV(DATA!F$2:F$98)</f>
+        <v>2.5507522881714942E-2</v>
       </c>
       <c r="D8" s="13">
-        <f>STDEV(DATA!G$2:G$101)</f>
-        <v>6.4523661692843542E-2</v>
+        <f>STDEV(DATA!G$2:G$98)</f>
+        <v>6.2058657829585244E-2</v>
       </c>
       <c r="E8" s="13">
-        <f>STDEV(DATA!H$2:H$101)</f>
-        <v>0.21265290929432612</v>
-      </c>
-      <c r="F8" s="13" t="e">
-        <f>STDEV(DATA!I$2:I$101)</f>
-        <v>#DIV/0!</v>
+        <f>STDEV(DATA!H$2:H$98)</f>
+        <v>0.17666922375402352</v>
+      </c>
+      <c r="F8" s="13">
+        <f>STDEV(DATA!I$2:I$98)</f>
+        <v>0.18105086697185785</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1295,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E879E283-F11F-BE4E-82D7-D1F9AF3BA95A}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1311,7 +1083,7 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
@@ -1348,19 +1120,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="25">
-        <v>2859943.8102389998</v>
+        <v>2841503.0206599999</v>
       </c>
       <c r="E2" s="21">
-        <v>1.086E-2</v>
+        <v>3.13E-3</v>
       </c>
       <c r="F2" s="21">
         <v>0</v>
@@ -1371,37 +1143,37 @@
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>18</v>
+      <c r="I2" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="23">
-        <v>2863251.0031389999</v>
+        <v>2842312.9911890002</v>
       </c>
       <c r="E3" s="22">
-        <v>1.1650000000000001E-2</v>
+        <v>3.0699999999999998E-3</v>
       </c>
       <c r="F3" s="22">
-        <v>1.1559999999999999E-3</v>
+        <v>2.8499999999999999E-4</v>
       </c>
       <c r="G3" s="22">
-        <v>0.96934399999999998</v>
+        <v>0.98142300000000005</v>
       </c>
       <c r="H3" s="9">
-        <v>0.20116000000000001</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>0.14105899999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3.8144999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1409,1072 +1181,1072 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="23">
-        <v>2863317.329558</v>
+        <v>2842312.9911890002</v>
       </c>
       <c r="E4" s="22">
-        <v>1.7829999999999999E-2</v>
+        <v>3.0699999999999998E-3</v>
       </c>
       <c r="F4" s="22">
-        <v>1.1800000000000001E-3</v>
+        <v>2.8499999999999999E-4</v>
       </c>
       <c r="G4" s="22">
-        <v>0.96768799999999999</v>
+        <v>0.98142300000000005</v>
       </c>
       <c r="H4" s="9">
-        <v>0.20822499999999999</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>0.14105899999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.8144999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="23">
-        <v>2863357.4700870002</v>
+        <v>2842312.9911890002</v>
       </c>
       <c r="E5" s="22">
-        <v>1.5310000000000001E-2</v>
+        <v>3.0699999999999998E-3</v>
       </c>
       <c r="F5" s="22">
-        <v>1.194E-3</v>
+        <v>2.8499999999999999E-4</v>
       </c>
       <c r="G5" s="22">
-        <v>0.96737700000000004</v>
+        <v>0.98142300000000005</v>
       </c>
       <c r="H5" s="9">
-        <v>0.21310299999999999</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>0.14105899999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.8144999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="23">
-        <v>2863720.9653489999</v>
+        <v>2844525.6063089999</v>
       </c>
       <c r="E6" s="22">
-        <v>1.7569999999999999E-2</v>
+        <v>3.5100000000000001E-3</v>
       </c>
       <c r="F6" s="22">
-        <v>1.3209999999999999E-3</v>
+        <v>1.0640000000000001E-3</v>
       </c>
       <c r="G6" s="22">
-        <v>0.95637300000000003</v>
+        <v>0.98122299999999996</v>
       </c>
       <c r="H6" s="9">
-        <v>0.27457100000000001</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>0.14296500000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.8560999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="23">
-        <v>2864134.0102829998</v>
+        <v>2860041.286541</v>
       </c>
       <c r="E7" s="22">
-        <v>9.7199999999999995E-3</v>
+        <v>5.3299999999999997E-3</v>
       </c>
       <c r="F7" s="22">
-        <v>1.4649999999999999E-3</v>
+        <v>6.5240000000000003E-3</v>
       </c>
       <c r="G7" s="22">
-        <v>0.942137</v>
+        <v>0.94303599999999999</v>
       </c>
       <c r="H7" s="9">
-        <v>0.32826899999999998</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>0.33307399999999998</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.12517500000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="23">
-        <v>2864143.2481089998</v>
+        <v>2861347.9694369999</v>
       </c>
       <c r="E8" s="22">
-        <v>1.5310000000000001E-2</v>
+        <v>4.5199999999999997E-3</v>
       </c>
       <c r="F8" s="22">
-        <v>1.4679999999999999E-3</v>
+        <v>6.9839999999999998E-3</v>
       </c>
       <c r="G8" s="22">
-        <v>0.96757599999999999</v>
+        <v>0.76325699999999996</v>
       </c>
       <c r="H8" s="9">
-        <v>0.21038399999999999</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>0.81228800000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.64446499999999995</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="23">
-        <v>2864143.2481089998</v>
+        <v>2861622.1757729999</v>
       </c>
       <c r="E9" s="22">
-        <v>1.5310000000000001E-2</v>
+        <v>4.6600000000000001E-3</v>
       </c>
       <c r="F9" s="22">
-        <v>1.4679999999999999E-3</v>
+        <v>7.0800000000000004E-3</v>
       </c>
       <c r="G9" s="22">
-        <v>0.96757599999999999</v>
+        <v>0.76313299999999995</v>
       </c>
       <c r="H9" s="9">
-        <v>0.21038399999999999</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>0.81477100000000002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.64447100000000002</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="23">
-        <v>2864143.2481089998</v>
+        <v>2861971.7331829998</v>
       </c>
       <c r="E10" s="22">
-        <v>1.5310000000000001E-2</v>
+        <v>5.3800000000000002E-3</v>
       </c>
       <c r="F10" s="22">
-        <v>1.4679999999999999E-3</v>
+        <v>7.2030000000000002E-3</v>
       </c>
       <c r="G10" s="22">
-        <v>0.96757599999999999</v>
+        <v>0.764127</v>
       </c>
       <c r="H10" s="9">
-        <v>0.21038399999999999</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>0.80536399999999997</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.64267600000000003</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="23">
-        <v>2864143.2481089998</v>
+        <v>2862238.4012600002</v>
       </c>
       <c r="E11" s="22">
-        <v>1.5310000000000001E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="F11" s="22">
-        <v>1.4679999999999999E-3</v>
+        <v>7.2969999999999997E-3</v>
       </c>
       <c r="G11" s="22">
-        <v>0.96757599999999999</v>
+        <v>0.76313299999999995</v>
       </c>
       <c r="H11" s="9">
-        <v>0.21038399999999999</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>0.81384500000000004</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.64397899999999997</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="23">
-        <v>2864143.2481089998</v>
+        <v>2862547.8159500002</v>
       </c>
       <c r="E12" s="22">
-        <v>1.5310000000000001E-2</v>
+        <v>5.3200000000000001E-3</v>
       </c>
       <c r="F12" s="22">
-        <v>1.4679999999999999E-3</v>
+        <v>7.4060000000000003E-3</v>
       </c>
       <c r="G12" s="22">
-        <v>0.96757599999999999</v>
+        <v>0.76522699999999999</v>
       </c>
       <c r="H12" s="9">
-        <v>0.21038399999999999</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
+        <v>0.808701</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.64401799999999998</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="23">
-        <v>2864143.2481089998</v>
+        <v>2862901.7084360002</v>
       </c>
       <c r="E13" s="22">
-        <v>1.5310000000000001E-2</v>
+        <v>3.1700000000000001E-3</v>
       </c>
       <c r="F13" s="22">
-        <v>1.4679999999999999E-3</v>
+        <v>7.5310000000000004E-3</v>
       </c>
       <c r="G13" s="22">
-        <v>0.96757599999999999</v>
+        <v>0.77571400000000001</v>
       </c>
       <c r="H13" s="9">
-        <v>0.21038399999999999</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
+        <v>0.79519799999999996</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.61289499999999997</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="23">
-        <v>2864143.2481089998</v>
+        <v>2864203.6584299998</v>
       </c>
       <c r="E14" s="22">
-        <v>1.5310000000000001E-2</v>
+        <v>4.1399999999999996E-3</v>
       </c>
       <c r="F14" s="22">
-        <v>1.4679999999999999E-3</v>
+        <v>7.9889999999999996E-3</v>
       </c>
       <c r="G14" s="22">
-        <v>0.96757599999999999</v>
+        <v>0.76517999999999997</v>
       </c>
       <c r="H14" s="9">
-        <v>0.21038399999999999</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>30</v>
+        <v>0.81028500000000003</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.63878699999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="23">
-        <v>2864143.2481089998</v>
+        <v>2864230.6875169999</v>
       </c>
       <c r="E15" s="22">
-        <v>1.5310000000000001E-2</v>
+        <v>6.8199999999999997E-3</v>
       </c>
       <c r="F15" s="22">
-        <v>1.4679999999999999E-3</v>
+        <v>7.9979999999999999E-3</v>
       </c>
       <c r="G15" s="22">
-        <v>0.96757599999999999</v>
+        <v>0.76759699999999997</v>
       </c>
       <c r="H15" s="9">
-        <v>0.21038399999999999</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>30</v>
+        <v>0.80796800000000002</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.63750600000000002</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="23">
-        <v>2864143.2481089998</v>
+        <v>2864364.663683</v>
       </c>
       <c r="E16" s="22">
-        <v>1.5310000000000001E-2</v>
+        <v>5.0299999999999997E-3</v>
       </c>
       <c r="F16" s="22">
-        <v>1.4679999999999999E-3</v>
+        <v>8.0459999999999993E-3</v>
       </c>
       <c r="G16" s="22">
-        <v>0.96757599999999999</v>
+        <v>0.76602400000000004</v>
       </c>
       <c r="H16" s="9">
-        <v>0.21038399999999999</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
+        <v>0.80584599999999995</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.63661199999999996</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="23">
-        <v>2864143.2481089998</v>
+        <v>2864516.4329829998</v>
       </c>
       <c r="E17" s="22">
-        <v>1.5310000000000001E-2</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="F17" s="22">
-        <v>1.4679999999999999E-3</v>
+        <v>8.0990000000000003E-3</v>
       </c>
       <c r="G17" s="22">
-        <v>0.96757599999999999</v>
+        <v>0.76315699999999997</v>
       </c>
       <c r="H17" s="9">
-        <v>0.21038399999999999</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>30</v>
+        <v>0.80388800000000005</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.64341800000000005</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="23">
-        <v>2864143.2481089998</v>
+        <v>2864516.4329829998</v>
       </c>
       <c r="E18" s="22">
-        <v>1.5310000000000001E-2</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="F18" s="22">
-        <v>1.4679999999999999E-3</v>
+        <v>8.0990000000000003E-3</v>
       </c>
       <c r="G18" s="22">
-        <v>0.96757599999999999</v>
+        <v>0.76315699999999997</v>
       </c>
       <c r="H18" s="9">
-        <v>0.21038399999999999</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>30</v>
+        <v>0.80388800000000005</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.64341800000000005</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="23">
-        <v>2864217.1941559999</v>
+        <v>2864516.4329829998</v>
       </c>
       <c r="E19" s="22">
-        <v>1.4840000000000001E-2</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="F19" s="22">
-        <v>1.4940000000000001E-3</v>
+        <v>8.0990000000000003E-3</v>
       </c>
       <c r="G19" s="22">
-        <v>0.92956099999999997</v>
+        <v>0.76315699999999997</v>
       </c>
       <c r="H19" s="9">
-        <v>0.38111200000000001</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>42</v>
+        <v>0.80388800000000005</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.64341800000000005</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="23">
-        <v>2864544.3909180001</v>
+        <v>2864516.4329829998</v>
       </c>
       <c r="E20" s="22">
-        <v>1.6539999999999999E-2</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="F20" s="22">
-        <v>1.609E-3</v>
+        <v>8.0990000000000003E-3</v>
       </c>
       <c r="G20" s="22">
-        <v>0.92964899999999995</v>
+        <v>0.76315699999999997</v>
       </c>
       <c r="H20" s="9">
-        <v>0.38299800000000001</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>44</v>
+        <v>0.80388800000000005</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.64341800000000005</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="23">
-        <v>2864556.3153599999</v>
+        <v>2864516.4329829998</v>
       </c>
       <c r="E21" s="22">
-        <v>1.1650000000000001E-2</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="F21" s="22">
-        <v>1.6130000000000001E-3</v>
+        <v>8.0990000000000003E-3</v>
       </c>
       <c r="G21" s="22">
-        <v>0.96883600000000003</v>
+        <v>0.76315699999999997</v>
       </c>
       <c r="H21" s="9">
-        <v>0.20413000000000001</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>46</v>
+        <v>0.80388800000000005</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.64341800000000005</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="23">
-        <v>2864556.3153599999</v>
+        <v>2864516.4329829998</v>
       </c>
       <c r="E22" s="22">
-        <v>1.1650000000000001E-2</v>
+        <v>2.1099999999999999E-3</v>
       </c>
       <c r="F22" s="22">
-        <v>1.6130000000000001E-3</v>
+        <v>8.0990000000000003E-3</v>
       </c>
       <c r="G22" s="22">
-        <v>0.96883600000000003</v>
+        <v>0.76315699999999997</v>
       </c>
       <c r="H22" s="9">
-        <v>0.20413000000000001</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>46</v>
+        <v>0.80388800000000005</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.64341800000000005</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="23">
-        <v>2864930.4530560002</v>
+        <v>2864676.0062509999</v>
       </c>
       <c r="E23" s="22">
-        <v>7.0899999999999999E-3</v>
+        <v>1.6800000000000001E-3</v>
       </c>
       <c r="F23" s="22">
-        <v>1.7440000000000001E-3</v>
+        <v>8.1550000000000008E-3</v>
       </c>
       <c r="G23" s="22">
-        <v>0.91358899999999998</v>
+        <v>0.76452100000000001</v>
       </c>
       <c r="H23" s="9">
-        <v>0.45034000000000002</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>49</v>
+        <v>0.82060599999999995</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.64193800000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="23">
-        <v>2865234.9262629999</v>
+        <v>2864725.6507540001</v>
       </c>
       <c r="E24" s="22">
-        <v>6.79E-3</v>
+        <v>5.0299999999999997E-3</v>
       </c>
       <c r="F24" s="22">
-        <v>1.8500000000000001E-3</v>
+        <v>8.1729999999999997E-3</v>
       </c>
       <c r="G24" s="22">
-        <v>0.90884699999999996</v>
+        <v>0.76665799999999995</v>
       </c>
       <c r="H24" s="9">
-        <v>0.46451599999999998</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>51</v>
+        <v>0.80137599999999998</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.63520699999999997</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="23">
-        <v>2865447.335736</v>
+        <v>2864725.6507540001</v>
       </c>
       <c r="E25" s="22">
-        <v>1.018E-2</v>
+        <v>5.0200000000000002E-3</v>
       </c>
       <c r="F25" s="22">
-        <v>1.9239999999999999E-3</v>
+        <v>8.1729999999999997E-3</v>
       </c>
       <c r="G25" s="22">
-        <v>0.91342400000000001</v>
+        <v>0.76665799999999995</v>
       </c>
       <c r="H25" s="9">
-        <v>0.45061099999999998</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>53</v>
+        <v>0.80137599999999998</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.63520699999999997</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="23">
-        <v>2865637.0392680001</v>
+        <v>2864854.4311040002</v>
       </c>
       <c r="E26" s="22">
-        <v>1.2030000000000001E-2</v>
+        <v>4.8700000000000002E-3</v>
       </c>
       <c r="F26" s="22">
-        <v>1.9910000000000001E-3</v>
+        <v>8.2179999999999996E-3</v>
       </c>
       <c r="G26" s="22">
-        <v>0.93670200000000003</v>
+        <v>0.76504000000000005</v>
       </c>
       <c r="H26" s="9">
-        <v>0.34822500000000001</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>55</v>
+        <v>0.81216500000000003</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.63879900000000001</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="23">
-        <v>2865747.9733219999</v>
+        <v>2864926.5576769998</v>
       </c>
       <c r="E27" s="22">
-        <v>9.58E-3</v>
+        <v>5.1200000000000004E-3</v>
       </c>
       <c r="F27" s="22">
-        <v>2.029E-3</v>
+        <v>8.2430000000000003E-3</v>
       </c>
       <c r="G27" s="22">
-        <v>0.93808000000000002</v>
+        <v>0.76519599999999999</v>
       </c>
       <c r="H27" s="9">
-        <v>0.34387899999999999</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>0.80990799999999996</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.637791</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="23">
-        <v>2865862.6987629998</v>
+        <v>2865178.1525679999</v>
       </c>
       <c r="E28" s="22">
-        <v>9.58E-3</v>
+        <v>2.6800000000000001E-3</v>
       </c>
       <c r="F28" s="22">
-        <v>2.0699999999999998E-3</v>
+        <v>8.3320000000000009E-3</v>
       </c>
       <c r="G28" s="22">
-        <v>0.93818400000000002</v>
+        <v>0.83714500000000003</v>
       </c>
       <c r="H28" s="9">
-        <v>0.34315200000000001</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>59</v>
+        <v>0.68423299999999998</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.43094500000000002</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="23">
-        <v>2865896.1537959999</v>
+        <v>2865497.4721840001</v>
       </c>
       <c r="E29" s="22">
-        <v>1.0529999999999999E-2</v>
+        <v>2.8800000000000002E-3</v>
       </c>
       <c r="F29" s="22">
-        <v>2.081E-3</v>
+        <v>8.4440000000000001E-3</v>
       </c>
       <c r="G29" s="22">
-        <v>0.96960199999999996</v>
+        <v>0.78065099999999998</v>
       </c>
       <c r="H29" s="9">
-        <v>0.198715</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>61</v>
+        <v>0.79679299999999997</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.59989300000000001</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="23">
-        <v>2866072.6676079999</v>
+        <v>2865620.6331520001</v>
       </c>
       <c r="E30" s="22">
-        <v>7.9100000000000004E-3</v>
+        <v>2.1700000000000001E-3</v>
       </c>
       <c r="F30" s="22">
-        <v>2.1429999999999999E-3</v>
+        <v>8.4880000000000008E-3</v>
       </c>
       <c r="G30" s="22">
-        <v>0.96950199999999997</v>
+        <v>0.79231499999999999</v>
       </c>
       <c r="H30" s="9">
-        <v>0.20082900000000001</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>63</v>
+        <v>0.76761299999999999</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.56784299999999999</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="23">
-        <v>2866083.8788680001</v>
+        <v>2866013.9416749999</v>
       </c>
       <c r="E31" s="22">
-        <v>1.0529999999999999E-2</v>
+        <v>3.4299999999999999E-3</v>
       </c>
       <c r="F31" s="22">
-        <v>2.147E-3</v>
+        <v>8.626E-3</v>
       </c>
       <c r="G31" s="22">
-        <v>0.969947</v>
+        <v>0.84455899999999995</v>
       </c>
       <c r="H31" s="9">
-        <v>0.19574</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>65</v>
+        <v>0.66712300000000002</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.40557700000000002</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="23">
-        <v>2866688.8185299998</v>
+        <v>2866173.5848400001</v>
       </c>
       <c r="E32" s="22">
-        <v>8.4700000000000001E-3</v>
+        <v>2.9499999999999999E-3</v>
       </c>
       <c r="F32" s="22">
-        <v>2.3579999999999999E-3</v>
+        <v>8.6820000000000005E-3</v>
       </c>
       <c r="G32" s="22">
-        <v>0.91974400000000001</v>
+        <v>0.76661500000000005</v>
       </c>
       <c r="H32" s="9">
-        <v>0.42488399999999998</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>67</v>
+        <v>0.82791199999999998</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.63706499999999999</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="23">
-        <v>2866836.1569639998</v>
+        <v>2866466.9433789998</v>
       </c>
       <c r="E33" s="22">
-        <v>7.7600000000000004E-3</v>
+        <v>3.5899999999999999E-3</v>
       </c>
       <c r="F33" s="22">
-        <v>2.4099999999999998E-3</v>
+        <v>8.7849999999999994E-3</v>
       </c>
       <c r="G33" s="22">
-        <v>0.92744899999999997</v>
+        <v>0.84468200000000004</v>
       </c>
       <c r="H33" s="9">
-        <v>0.38447900000000002</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>69</v>
+        <v>0.66596299999999997</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.40610499999999999</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="23">
-        <v>2867248.3766890001</v>
+        <v>2866683.2576759998</v>
       </c>
       <c r="E34" s="22">
-        <v>8.4700000000000001E-3</v>
+        <v>4.3499999999999997E-3</v>
       </c>
       <c r="F34" s="22">
-        <v>2.5539999999999998E-3</v>
+        <v>8.8620000000000001E-3</v>
       </c>
       <c r="G34" s="22">
-        <v>0.92149599999999998</v>
+        <v>0.76389700000000005</v>
       </c>
       <c r="H34" s="9">
-        <v>0.424653</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>71</v>
+        <v>0.81753299999999995</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.64093500000000003</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="23">
-        <v>2867373.579835</v>
+        <v>2866802.5637630001</v>
       </c>
       <c r="E35" s="22">
-        <v>5.1500000000000001E-3</v>
+        <v>1.1800000000000001E-3</v>
       </c>
       <c r="F35" s="22">
-        <v>2.598E-3</v>
+        <v>8.9040000000000005E-3</v>
       </c>
       <c r="G35" s="22">
-        <v>0.96910200000000002</v>
+        <v>0.80810800000000005</v>
       </c>
       <c r="H35" s="9">
-        <v>0.202103</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>73</v>
+        <v>0.73228499999999996</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.52290700000000001</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="23">
-        <v>2867376.893832</v>
+        <v>2867257.4466940002</v>
       </c>
       <c r="E36" s="22">
-        <v>4.4600000000000004E-3</v>
+        <v>5.2900000000000004E-3</v>
       </c>
       <c r="F36" s="22">
-        <v>2.5990000000000002E-3</v>
+        <v>9.0639999999999991E-3</v>
       </c>
       <c r="G36" s="22">
-        <v>0.96919900000000003</v>
+        <v>0.75930799999999998</v>
       </c>
       <c r="H36" s="9">
-        <v>0.20100999999999999</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>75</v>
+        <v>0.83155299999999999</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.65611399999999998</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="23">
-        <v>2867376.893832</v>
+        <v>2867313.199118</v>
       </c>
       <c r="E37" s="22">
-        <v>4.4600000000000004E-3</v>
+        <v>3.9699999999999996E-3</v>
       </c>
       <c r="F37" s="22">
-        <v>2.5990000000000002E-3</v>
+        <v>9.0830000000000008E-3</v>
       </c>
       <c r="G37" s="22">
-        <v>0.96919900000000003</v>
+        <v>0.77621899999999999</v>
       </c>
       <c r="H37" s="9">
-        <v>0.20100999999999999</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>75</v>
+        <v>0.80945699999999998</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.61021400000000003</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="23">
-        <v>2867376.893832</v>
+        <v>2867386.785013</v>
       </c>
       <c r="E38" s="22">
-        <v>4.4600000000000004E-3</v>
+        <v>2.5100000000000001E-3</v>
       </c>
       <c r="F38" s="22">
-        <v>2.5990000000000002E-3</v>
+        <v>9.1090000000000008E-3</v>
       </c>
       <c r="G38" s="22">
-        <v>0.96919900000000003</v>
+        <v>0.81573899999999999</v>
       </c>
       <c r="H38" s="9">
-        <v>0.20100999999999999</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>75</v>
+        <v>0.72208799999999995</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.49845099999999998</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="23">
-        <v>2867501.2172079999</v>
+        <v>2868001.0043250001</v>
       </c>
       <c r="E39" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>1.41E-3</v>
       </c>
       <c r="F39" s="22">
-        <v>2.643E-3</v>
+        <v>9.325E-3</v>
       </c>
       <c r="G39" s="22">
-        <v>0.96895900000000001</v>
+        <v>0.81515400000000005</v>
       </c>
       <c r="H39" s="9">
-        <v>0.20321900000000001</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>79</v>
+        <v>0.72499400000000003</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.499469</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="23">
-        <v>2867501.2172079999</v>
+        <v>2868001.0043250001</v>
       </c>
       <c r="E40" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>1.41E-3</v>
       </c>
       <c r="F40" s="22">
-        <v>2.643E-3</v>
+        <v>9.325E-3</v>
       </c>
       <c r="G40" s="22">
-        <v>0.96895900000000001</v>
+        <v>0.81515400000000005</v>
       </c>
       <c r="H40" s="9">
-        <v>0.20321900000000001</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>79</v>
+        <v>0.72499400000000003</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.499469</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2482,1768 +2254,1681 @@
         <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="23">
-        <v>2867501.2172079999</v>
+        <v>2868054.2883990002</v>
       </c>
       <c r="E41" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>1.41E-3</v>
       </c>
       <c r="F41" s="22">
-        <v>2.643E-3</v>
+        <v>9.3439999999999999E-3</v>
       </c>
       <c r="G41" s="22">
-        <v>0.96895900000000001</v>
+        <v>0.81573799999999996</v>
       </c>
       <c r="H41" s="9">
-        <v>0.20321900000000001</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>79</v>
+        <v>0.723885</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.49738199999999999</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="23">
-        <v>2867501.2172079999</v>
+        <v>2868054.2883990002</v>
       </c>
       <c r="E42" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>1.41E-3</v>
       </c>
       <c r="F42" s="22">
-        <v>2.643E-3</v>
+        <v>9.3439999999999999E-3</v>
       </c>
       <c r="G42" s="22">
-        <v>0.96895900000000001</v>
+        <v>0.81573799999999996</v>
       </c>
       <c r="H42" s="9">
-        <v>0.20321900000000001</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>79</v>
+        <v>0.723885</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.49738199999999999</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="23">
-        <v>2867501.2172079999</v>
+        <v>2868054.2883990002</v>
       </c>
       <c r="E43" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>1.41E-3</v>
       </c>
       <c r="F43" s="22">
-        <v>2.643E-3</v>
+        <v>9.3439999999999999E-3</v>
       </c>
       <c r="G43" s="22">
-        <v>0.96895900000000001</v>
+        <v>0.81573799999999996</v>
       </c>
       <c r="H43" s="9">
-        <v>0.20321900000000001</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>79</v>
+        <v>0.723885</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.49738199999999999</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="23">
-        <v>2867501.2172079999</v>
+        <v>2868054.2883990002</v>
       </c>
       <c r="E44" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>1.41E-3</v>
       </c>
       <c r="F44" s="22">
-        <v>2.643E-3</v>
+        <v>9.3439999999999999E-3</v>
       </c>
       <c r="G44" s="22">
-        <v>0.96895900000000001</v>
+        <v>0.81573799999999996</v>
       </c>
       <c r="H44" s="9">
-        <v>0.20321900000000001</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>79</v>
+        <v>0.723885</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.49738199999999999</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="23">
-        <v>2867501.2172079999</v>
+        <v>2868054.2883990002</v>
       </c>
       <c r="E45" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>1.41E-3</v>
       </c>
       <c r="F45" s="22">
-        <v>2.643E-3</v>
+        <v>9.3439999999999999E-3</v>
       </c>
       <c r="G45" s="22">
-        <v>0.96895900000000001</v>
+        <v>0.81573799999999996</v>
       </c>
       <c r="H45" s="9">
-        <v>0.20321900000000001</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>79</v>
+        <v>0.723885</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.49738199999999999</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
       <c r="D46" s="23">
-        <v>2867501.2172079999</v>
+        <v>2868167.7010900001</v>
       </c>
       <c r="E46" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>1.56E-3</v>
       </c>
       <c r="F46" s="22">
-        <v>2.643E-3</v>
+        <v>9.384E-3</v>
       </c>
       <c r="G46" s="22">
-        <v>0.96895900000000001</v>
+        <v>0.81617499999999998</v>
       </c>
       <c r="H46" s="9">
-        <v>0.20321900000000001</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>79</v>
+        <v>0.72198700000000005</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.497222</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="23">
-        <v>2867501.2172079999</v>
+        <v>2868863.4700890002</v>
       </c>
       <c r="E47" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>2.8300000000000001E-3</v>
       </c>
       <c r="F47" s="22">
-        <v>2.643E-3</v>
+        <v>9.6290000000000004E-3</v>
       </c>
       <c r="G47" s="22">
-        <v>0.96895900000000001</v>
+        <v>0.81549199999999999</v>
       </c>
       <c r="H47" s="9">
-        <v>0.20321900000000001</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>79</v>
+        <v>0.72367999999999999</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.49888199999999999</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="23">
-        <v>2867501.2172079999</v>
+        <v>2868916.4562050002</v>
       </c>
       <c r="E48" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>2.8300000000000001E-3</v>
       </c>
       <c r="F48" s="22">
-        <v>2.643E-3</v>
+        <v>9.6480000000000003E-3</v>
       </c>
       <c r="G48" s="22">
-        <v>0.96895900000000001</v>
+        <v>0.81607600000000002</v>
       </c>
       <c r="H48" s="9">
-        <v>0.20321900000000001</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>79</v>
+        <v>0.72257000000000005</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.49679299999999998</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" s="23">
-        <v>2867501.2172079999</v>
+        <v>2869123.6340589998</v>
       </c>
       <c r="E49" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>5.3200000000000001E-3</v>
       </c>
       <c r="F49" s="22">
-        <v>2.643E-3</v>
+        <v>9.7199999999999995E-3</v>
       </c>
       <c r="G49" s="22">
-        <v>0.96895900000000001</v>
+        <v>0.76163099999999995</v>
       </c>
       <c r="H49" s="9">
-        <v>0.20321900000000001</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>79</v>
+        <v>0.82797100000000001</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.64957500000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="23">
-        <v>2867501.2172079999</v>
+        <v>2869123.6340589998</v>
       </c>
       <c r="E50" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>5.3200000000000001E-3</v>
       </c>
       <c r="F50" s="22">
-        <v>2.643E-3</v>
+        <v>9.7199999999999995E-3</v>
       </c>
       <c r="G50" s="22">
-        <v>0.96895900000000001</v>
+        <v>0.76163099999999995</v>
       </c>
       <c r="H50" s="9">
-        <v>0.20321900000000001</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>79</v>
+        <v>0.82797100000000001</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.64957500000000001</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="23">
-        <v>2867501.2172079999</v>
+        <v>2869251.4808459999</v>
       </c>
       <c r="E51" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>5.0499999999999998E-3</v>
       </c>
       <c r="F51" s="22">
-        <v>2.643E-3</v>
+        <v>9.7649999999999994E-3</v>
       </c>
       <c r="G51" s="22">
-        <v>0.96895900000000001</v>
+        <v>0.76167200000000002</v>
       </c>
       <c r="H51" s="9">
-        <v>0.20321900000000001</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>79</v>
+        <v>0.82775699999999997</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0.64933700000000005</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
+        <v>61</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="23">
-        <v>2867501.2172079999</v>
+        <v>2869423.2950490001</v>
       </c>
       <c r="E52" s="22">
-        <v>4.0200000000000001E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F52" s="22">
-        <v>2.643E-3</v>
+        <v>9.8259999999999997E-3</v>
       </c>
       <c r="G52" s="22">
-        <v>0.96895900000000001</v>
+        <v>0.76144599999999996</v>
       </c>
       <c r="H52" s="9">
-        <v>0.20321900000000001</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>79</v>
+        <v>0.82841500000000001</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0.64951000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" s="23">
-        <v>2867816.0544909998</v>
+        <v>2869423.2950490001</v>
       </c>
       <c r="E53" s="22">
-        <v>1.4619999999999999E-2</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F53" s="22">
-        <v>2.7529999999999998E-3</v>
+        <v>9.8259999999999997E-3</v>
       </c>
       <c r="G53" s="22">
-        <v>0.93964400000000003</v>
+        <v>0.76144599999999996</v>
       </c>
       <c r="H53" s="9">
-        <v>0.34054800000000002</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>94</v>
+        <v>0.82841500000000001</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0.64951000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="23">
-        <v>2867832.0045659998</v>
+        <v>2869455.3192619998</v>
       </c>
       <c r="E54" s="22">
-        <v>7.4999999999999997E-3</v>
+        <v>6.0800000000000003E-3</v>
       </c>
       <c r="F54" s="22">
-        <v>2.758E-3</v>
+        <v>9.8370000000000003E-3</v>
       </c>
       <c r="G54" s="22">
-        <v>0.92479100000000003</v>
+        <v>0.76141099999999995</v>
       </c>
       <c r="H54" s="9">
-        <v>0.41225099999999998</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>96</v>
+        <v>0.82856700000000005</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.64966199999999996</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="23">
-        <v>2868058.4986390001</v>
+        <v>2869549.0257230001</v>
       </c>
       <c r="E55" s="22">
-        <v>8.1600000000000006E-3</v>
+        <v>3.1199999999999999E-3</v>
       </c>
       <c r="F55" s="22">
-        <v>2.8370000000000001E-3</v>
+        <v>9.8700000000000003E-3</v>
       </c>
       <c r="G55" s="22">
-        <v>0.92002600000000001</v>
+        <v>0.83359000000000005</v>
       </c>
       <c r="H55" s="9">
-        <v>0.42635600000000001</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>98</v>
+        <v>0.70569000000000004</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0.43868299999999999</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="23">
-        <v>2868183.2059960002</v>
+        <v>2870528.0403490001</v>
       </c>
       <c r="E56" s="22">
-        <v>1.3390000000000001E-2</v>
+        <v>2.6099999999999999E-3</v>
       </c>
       <c r="F56" s="22">
-        <v>2.8809999999999999E-3</v>
+        <v>1.0215E-2</v>
       </c>
       <c r="G56" s="22">
-        <v>0.91984900000000003</v>
+        <v>0.82808199999999998</v>
       </c>
       <c r="H56" s="9">
-        <v>0.42545699999999997</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>100</v>
+        <v>0.69482699999999997</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.45627800000000002</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="23">
-        <v>2868370.1092610001</v>
+        <v>2871314.1931289998</v>
       </c>
       <c r="E57" s="22">
-        <v>1.636E-2</v>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="F57" s="22">
-        <v>2.9459999999999998E-3</v>
+        <v>1.0491E-2</v>
       </c>
       <c r="G57" s="22">
-        <v>0.97970800000000002</v>
+        <v>0.76371</v>
       </c>
       <c r="H57" s="9">
-        <v>0.14790200000000001</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>102</v>
+        <v>0.83629399999999998</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0.64593599999999995</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" s="23">
-        <v>2868767.6245220001</v>
+        <v>2871321.3915570001</v>
       </c>
       <c r="E58" s="22">
-        <v>1.66E-2</v>
+        <v>4.3400000000000001E-3</v>
       </c>
       <c r="F58" s="22">
-        <v>3.0850000000000001E-3</v>
+        <v>1.0494E-2</v>
       </c>
       <c r="G58" s="22">
-        <v>0.93538500000000002</v>
+        <v>0.83542499999999997</v>
       </c>
       <c r="H58" s="9">
-        <v>0.35448200000000002</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>104</v>
+        <v>0.65591900000000003</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.44142900000000002</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="23">
-        <v>2869826.6497599999</v>
+        <v>2871631.9610000001</v>
       </c>
       <c r="E59" s="22">
-        <v>1.183E-2</v>
+        <v>3.8300000000000001E-3</v>
       </c>
       <c r="F59" s="22">
-        <v>3.4559999999999999E-3</v>
+        <v>1.0603E-2</v>
       </c>
       <c r="G59" s="22">
-        <v>0.91817599999999999</v>
+        <v>0.75750899999999999</v>
       </c>
       <c r="H59" s="9">
-        <v>0.43736700000000001</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>106</v>
+        <v>0.83851100000000001</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.66096900000000003</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="23">
-        <v>2870267.2493889998</v>
+        <v>2871914.0592240002</v>
       </c>
       <c r="E60" s="22">
-        <v>1.2160000000000001E-2</v>
+        <v>2.96E-3</v>
       </c>
       <c r="F60" s="22">
-        <v>3.6099999999999999E-3</v>
+        <v>1.0702E-2</v>
       </c>
       <c r="G60" s="22">
-        <v>0.952708</v>
+        <v>0.786991</v>
       </c>
       <c r="H60" s="9">
-        <v>0.29459000000000002</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>108</v>
+        <v>0.80076000000000003</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.58225099999999996</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="23">
-        <v>2870724.8461870002</v>
+        <v>2873332.0785610001</v>
       </c>
       <c r="E61" s="22">
-        <v>1.9599999999999999E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="F61" s="22">
-        <v>3.7699999999999999E-3</v>
+        <v>1.1200999999999999E-2</v>
       </c>
       <c r="G61" s="22">
-        <v>0.92642199999999997</v>
+        <v>0.75946100000000005</v>
       </c>
       <c r="H61" s="9">
-        <v>0.40444799999999997</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>110</v>
+        <v>0.83751799999999998</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.65571599999999997</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="23">
-        <v>2870761.7098420002</v>
+        <v>2874639.9609150002</v>
       </c>
       <c r="E62" s="22">
-        <v>5.7800000000000004E-3</v>
+        <v>5.28E-3</v>
       </c>
       <c r="F62" s="22">
-        <v>3.7829999999999999E-3</v>
+        <v>1.1662E-2</v>
       </c>
       <c r="G62" s="22">
-        <v>0.92643299999999995</v>
+        <v>0.75859600000000005</v>
       </c>
       <c r="H62" s="9">
-        <v>0.40617900000000001</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>112</v>
+        <v>0.84013499999999997</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.65882600000000002</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="23">
-        <v>2871062.3942720001</v>
+        <v>2881563.4907359998</v>
       </c>
       <c r="E63" s="22">
-        <v>1.1039999999999999E-2</v>
+        <v>3.9899999999999996E-3</v>
       </c>
       <c r="F63" s="22">
-        <v>3.888E-3</v>
+        <v>1.4097999999999999E-2</v>
       </c>
       <c r="G63" s="22">
-        <v>0.92852100000000004</v>
+        <v>0.81501500000000004</v>
       </c>
       <c r="H63" s="9">
-        <v>0.39907100000000001</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>114</v>
+        <v>0.65068199999999998</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.503417</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" s="23">
-        <v>2871204.3670359999</v>
+        <v>2883022.3051900002</v>
       </c>
       <c r="E64" s="22">
-        <v>1.325E-2</v>
+        <v>2.0600000000000002E-3</v>
       </c>
       <c r="F64" s="22">
-        <v>3.9370000000000004E-3</v>
+        <v>1.4612E-2</v>
       </c>
       <c r="G64" s="22">
-        <v>0.92672399999999999</v>
+        <v>0.81189500000000003</v>
       </c>
       <c r="H64" s="9">
-        <v>0.40535599999999999</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>116</v>
+        <v>0.659937</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.51039699999999999</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="23">
-        <v>2871420.970518</v>
+        <v>2883210.6667510001</v>
       </c>
       <c r="E65" s="22">
-        <v>1.163E-2</v>
+        <v>1.33E-3</v>
       </c>
       <c r="F65" s="22">
-        <v>4.0130000000000001E-3</v>
+        <v>1.4678E-2</v>
       </c>
       <c r="G65" s="22">
-        <v>0.93548600000000004</v>
+        <v>0.81311900000000004</v>
       </c>
       <c r="H65" s="9">
-        <v>0.36638900000000002</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>118</v>
+        <v>0.65993599999999997</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.50715900000000003</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" s="23">
-        <v>2872112.484524</v>
+        <v>2883210.6667510001</v>
       </c>
       <c r="E66" s="22">
-        <v>1.1299999999999999E-2</v>
+        <v>1.33E-3</v>
       </c>
       <c r="F66" s="22">
-        <v>4.2550000000000001E-3</v>
+        <v>1.4678E-2</v>
       </c>
       <c r="G66" s="22">
-        <v>0.93523900000000004</v>
+        <v>0.81311900000000004</v>
       </c>
       <c r="H66" s="9">
-        <v>0.371118</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>120</v>
+        <v>0.65993599999999997</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.50715900000000003</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="23">
-        <v>2872862.758806</v>
+        <v>2889608.1609709999</v>
       </c>
       <c r="E67" s="22">
-        <v>1.0059999999999999E-2</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="F67" s="22">
-        <v>4.5170000000000002E-3</v>
+        <v>1.6929E-2</v>
       </c>
       <c r="G67" s="22">
-        <v>0.89786600000000005</v>
+        <v>0.78960399999999997</v>
       </c>
       <c r="H67" s="9">
-        <v>0.51005199999999995</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>122</v>
+        <v>0.78558899999999998</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.58554899999999999</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="23">
-        <v>2873038.1496850001</v>
+        <v>2890213.145767</v>
       </c>
       <c r="E68" s="22">
-        <v>1.163E-2</v>
+        <v>2.9299999999999999E-3</v>
       </c>
       <c r="F68" s="22">
-        <v>4.5789999999999997E-3</v>
+        <v>1.7142000000000001E-2</v>
       </c>
       <c r="G68" s="22">
-        <v>0.93580399999999997</v>
+        <v>0.78929700000000003</v>
       </c>
       <c r="H68" s="9">
-        <v>0.36563600000000002</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>124</v>
+        <v>0.79232599999999997</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.58627300000000004</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="23">
-        <v>2873127.1620160001</v>
+        <v>2890393.4195090001</v>
       </c>
       <c r="E69" s="22">
-        <v>1.193E-2</v>
+        <v>3.9300000000000003E-3</v>
       </c>
       <c r="F69" s="22">
-        <v>4.6100000000000004E-3</v>
+        <v>1.7205999999999999E-2</v>
       </c>
       <c r="G69" s="22">
-        <v>0.93410800000000005</v>
+        <v>0.74392599999999998</v>
       </c>
       <c r="H69" s="9">
-        <v>0.37908199999999997</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>126</v>
+        <v>0.810581</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.72606499999999996</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="23">
-        <v>2873155.9905719999</v>
+        <v>2892346.8437089999</v>
       </c>
       <c r="E70" s="22">
-        <v>1.1979999999999999E-2</v>
+        <v>5.2300000000000003E-3</v>
       </c>
       <c r="F70" s="22">
-        <v>4.62E-3</v>
+        <v>1.7892999999999999E-2</v>
       </c>
       <c r="G70" s="22">
-        <v>0.93335999999999997</v>
+        <v>0.74577099999999996</v>
       </c>
       <c r="H70" s="9">
-        <v>0.37961699999999998</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>128</v>
+        <v>0.80345100000000003</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.71700399999999997</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="23">
-        <v>2873159.828923</v>
+        <v>2892782.2751409998</v>
       </c>
       <c r="E71" s="22">
-        <v>1.163E-2</v>
+        <v>3.3899999999999998E-3</v>
       </c>
       <c r="F71" s="22">
-        <v>4.6210000000000001E-3</v>
+        <v>1.8047000000000001E-2</v>
       </c>
       <c r="G71" s="22">
-        <v>0.93597399999999997</v>
+        <v>0.74292199999999997</v>
       </c>
       <c r="H71" s="9">
-        <v>0.36435899999999999</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>130</v>
+        <v>0.81698400000000004</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.72558100000000003</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="23">
-        <v>2873487.015352</v>
+        <v>2893317.0893279999</v>
       </c>
       <c r="E72" s="22">
-        <v>2.0080000000000001E-2</v>
+        <v>4.0499999999999998E-3</v>
       </c>
       <c r="F72" s="22">
-        <v>4.7349999999999996E-3</v>
+        <v>1.8235000000000001E-2</v>
       </c>
       <c r="G72" s="22">
-        <v>0.91989299999999996</v>
+        <v>0.74502699999999999</v>
       </c>
       <c r="H72" s="9">
-        <v>0.42938799999999999</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>132</v>
+        <v>0.81253600000000004</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.71858900000000003</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="23">
-        <v>2873903.1365550002</v>
+        <v>2894249.8185800002</v>
       </c>
       <c r="E73" s="22">
-        <v>9.1400000000000006E-3</v>
+        <v>4.15E-3</v>
       </c>
       <c r="F73" s="22">
-        <v>4.8809999999999999E-3</v>
+        <v>1.8563E-2</v>
       </c>
       <c r="G73" s="22">
-        <v>0.91357100000000002</v>
+        <v>0.74170199999999997</v>
       </c>
       <c r="H73" s="9">
-        <v>0.45427000000000001</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>134</v>
+        <v>0.82615899999999998</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.72160299999999999</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" s="23">
-        <v>2874074.763448</v>
+        <v>2894639.3651120001</v>
       </c>
       <c r="E74" s="22">
-        <v>1.1990000000000001E-2</v>
+        <v>3.4099999999999998E-3</v>
       </c>
       <c r="F74" s="22">
-        <v>4.9410000000000001E-3</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="G74" s="22">
-        <v>0.89289300000000005</v>
+        <v>0.744869</v>
       </c>
       <c r="H74" s="9">
-        <v>0.51735900000000001</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>136</v>
+        <v>0.80342499999999994</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.72260500000000005</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="23">
-        <v>2884493.6822509998</v>
+        <v>2895171.9733440001</v>
       </c>
       <c r="E75" s="22">
-        <v>1.9599999999999999E-2</v>
+        <v>2.7899999999999999E-3</v>
       </c>
       <c r="F75" s="22">
-        <v>8.5839999999999996E-3</v>
+        <v>1.8887999999999999E-2</v>
       </c>
       <c r="G75" s="22">
-        <v>0.797848</v>
+        <v>0.74099199999999998</v>
       </c>
       <c r="H75" s="9">
-        <v>0.755162</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>138</v>
+        <v>0.82419799999999999</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.72570199999999996</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
       <c r="D76" s="23">
-        <v>2884958.266088</v>
+        <v>2895834.3956690002</v>
       </c>
       <c r="E76" s="22">
-        <v>2.247E-2</v>
+        <v>4.9500000000000004E-3</v>
       </c>
       <c r="F76" s="22">
-        <v>8.7460000000000003E-3</v>
+        <v>1.9120999999999999E-2</v>
       </c>
       <c r="G76" s="22">
-        <v>0.80064999999999997</v>
+        <v>0.74620399999999998</v>
       </c>
       <c r="H76" s="9">
-        <v>0.74269099999999999</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>140</v>
+        <v>0.80181800000000003</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.709144</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="23">
-        <v>2884997.133622</v>
+        <v>2895861.3576710001</v>
       </c>
       <c r="E77" s="22">
-        <v>1.5910000000000001E-2</v>
+        <v>3.9500000000000004E-3</v>
       </c>
       <c r="F77" s="22">
-        <v>8.7600000000000004E-3</v>
+        <v>1.9130000000000001E-2</v>
       </c>
       <c r="G77" s="22">
-        <v>0.79765399999999997</v>
+        <v>0.74650000000000005</v>
       </c>
       <c r="H77" s="9">
-        <v>0.75139100000000003</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>142</v>
+        <v>0.80076499999999995</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.70695300000000005</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" s="23">
-        <v>2885128.9562260001</v>
+        <v>2895925.1931500002</v>
       </c>
       <c r="E78" s="22">
-        <v>1.7229999999999999E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="F78" s="22">
-        <v>8.8059999999999996E-3</v>
+        <v>1.9153E-2</v>
       </c>
       <c r="G78" s="22">
-        <v>0.79886599999999997</v>
+        <v>0.74710299999999996</v>
       </c>
       <c r="H78" s="9">
-        <v>0.74938800000000005</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>144</v>
+        <v>0.80204399999999998</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.70845599999999997</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="23">
-        <v>2886753.7760370001</v>
+        <v>2895925.1931500002</v>
       </c>
       <c r="E79" s="22">
-        <v>2.112E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="F79" s="22">
-        <v>9.3740000000000004E-3</v>
+        <v>1.9153E-2</v>
       </c>
       <c r="G79" s="22">
-        <v>0.80112000000000005</v>
+        <v>0.74710299999999996</v>
       </c>
       <c r="H79" s="9">
-        <v>0.73787800000000003</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>146</v>
+        <v>0.80204399999999998</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.70845599999999997</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
       <c r="D80" s="23">
-        <v>2887245.7049429999</v>
+        <v>2895925.1931500002</v>
       </c>
       <c r="E80" s="22">
-        <v>1.9879999999999998E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="F80" s="22">
-        <v>9.5460000000000007E-3</v>
+        <v>1.9153E-2</v>
       </c>
       <c r="G80" s="22">
-        <v>0.80086400000000002</v>
+        <v>0.74710299999999996</v>
       </c>
       <c r="H80" s="9">
-        <v>0.73845400000000005</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>148</v>
+        <v>0.80204399999999998</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.70845599999999997</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" s="23">
-        <v>2889078.548527</v>
+        <v>2895925.1931500002</v>
       </c>
       <c r="E81" s="22">
-        <v>1.9220000000000001E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="F81" s="22">
-        <v>1.0187E-2</v>
+        <v>1.9153E-2</v>
       </c>
       <c r="G81" s="22">
-        <v>0.79678199999999999</v>
+        <v>0.74710299999999996</v>
       </c>
       <c r="H81" s="9">
-        <v>0.75862799999999997</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>150</v>
+        <v>0.80204399999999998</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.70845599999999997</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" s="23">
-        <v>2889680.5288499999</v>
+        <v>2897205.2675450002</v>
       </c>
       <c r="E82" s="22">
-        <v>2.0580000000000001E-2</v>
+        <v>4.4400000000000004E-3</v>
       </c>
       <c r="F82" s="22">
-        <v>1.0397999999999999E-2</v>
+        <v>1.9602999999999999E-2</v>
       </c>
       <c r="G82" s="22">
-        <v>0.82288499999999998</v>
+        <v>0.74604199999999998</v>
       </c>
       <c r="H82" s="9">
-        <v>0.70618099999999995</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>152</v>
+        <v>0.80291599999999996</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.70818700000000001</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="23">
-        <v>2890380.837516</v>
+        <v>2897754.9771150001</v>
       </c>
       <c r="E83" s="22">
-        <v>1.9120000000000002E-2</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="F83" s="22">
-        <v>1.0643E-2</v>
+        <v>1.9796999999999999E-2</v>
       </c>
       <c r="G83" s="22">
-        <v>0.83794599999999997</v>
+        <v>0.853043</v>
       </c>
       <c r="H83" s="9">
-        <v>0.67755299999999996</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>154</v>
+        <v>0.60589000000000004</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.39145999999999997</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" s="23">
-        <v>2891666.3495550002</v>
+        <v>2898570.8300339999</v>
       </c>
       <c r="E84" s="22">
-        <v>1.6480000000000002E-2</v>
+        <v>3.8700000000000002E-3</v>
       </c>
       <c r="F84" s="22">
-        <v>1.1091999999999999E-2</v>
+        <v>2.0084000000000001E-2</v>
       </c>
       <c r="G84" s="22">
-        <v>0.82708599999999999</v>
+        <v>0.75134299999999998</v>
       </c>
       <c r="H84" s="9">
-        <v>0.69784500000000005</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>156</v>
+        <v>0.78460300000000005</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.69771399999999995</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
       <c r="D85" s="23">
-        <v>2891690.7754540001</v>
+        <v>2898570.8300339999</v>
       </c>
       <c r="E85" s="22">
-        <v>1.485E-2</v>
+        <v>3.8700000000000002E-3</v>
       </c>
       <c r="F85" s="22">
-        <v>1.1101E-2</v>
+        <v>2.0084000000000001E-2</v>
       </c>
       <c r="G85" s="22">
-        <v>0.82103800000000005</v>
+        <v>0.75134299999999998</v>
       </c>
       <c r="H85" s="9">
-        <v>0.69673300000000005</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>158</v>
+        <v>0.78460300000000005</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.69771399999999995</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>159</v>
+        <v>39</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" s="23">
-        <v>2891691.9280989999</v>
+        <v>2898570.8300339999</v>
       </c>
       <c r="E86" s="22">
-        <v>1.5100000000000001E-2</v>
+        <v>3.8700000000000002E-3</v>
       </c>
       <c r="F86" s="22">
-        <v>1.1101E-2</v>
+        <v>2.0084000000000001E-2</v>
       </c>
       <c r="G86" s="22">
-        <v>0.82106999999999997</v>
+        <v>0.75134299999999998</v>
       </c>
       <c r="H86" s="9">
-        <v>0.69658100000000001</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>160</v>
+        <v>0.78460300000000005</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.69771399999999995</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
       </c>
       <c r="D87" s="23">
-        <v>2891691.9280989999</v>
+        <v>2899463.0968240001</v>
       </c>
       <c r="E87" s="22">
-        <v>1.5100000000000001E-2</v>
+        <v>2.14E-3</v>
       </c>
       <c r="F87" s="22">
-        <v>1.1101E-2</v>
+        <v>2.0397999999999999E-2</v>
       </c>
       <c r="G87" s="22">
-        <v>0.82106999999999997</v>
+        <v>0.81722899999999998</v>
       </c>
       <c r="H87" s="9">
-        <v>0.69658100000000001</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>160</v>
+        <v>0.73269899999999999</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.49776300000000001</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="23">
-        <v>2892161.3962369999</v>
+        <v>2900562.7365640001</v>
       </c>
       <c r="E88" s="22">
-        <v>1.1440000000000001E-2</v>
+        <v>2.0100000000000001E-3</v>
       </c>
       <c r="F88" s="22">
-        <v>1.1265000000000001E-2</v>
+        <v>2.0785000000000001E-2</v>
       </c>
       <c r="G88" s="22">
-        <v>0.80425000000000002</v>
+        <v>0.76304400000000006</v>
       </c>
       <c r="H88" s="9">
-        <v>0.73199199999999998</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>163</v>
+        <v>0.71452899999999997</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0.65298999999999996</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
       </c>
       <c r="D89" s="23">
-        <v>2892699.0524249999</v>
+        <v>2901777.871086</v>
       </c>
       <c r="E89" s="22">
-        <v>1.9380000000000001E-2</v>
+        <v>4.1799999999999997E-3</v>
       </c>
       <c r="F89" s="22">
-        <v>1.1453E-2</v>
+        <v>2.1212000000000002E-2</v>
       </c>
       <c r="G89" s="22">
-        <v>0.83206599999999997</v>
+        <v>0.82704500000000003</v>
       </c>
       <c r="H89" s="9">
-        <v>0.69027000000000005</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>165</v>
+        <v>0.674153</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.473084</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
       </c>
       <c r="D90" s="23">
-        <v>2893062.2497640001</v>
+        <v>2903697.1999039999</v>
       </c>
       <c r="E90" s="22">
-        <v>1.847E-2</v>
+        <v>2.63E-3</v>
       </c>
       <c r="F90" s="22">
-        <v>1.158E-2</v>
+        <v>2.1888000000000001E-2</v>
       </c>
       <c r="G90" s="22">
-        <v>0.83537899999999998</v>
+        <v>0.75270400000000004</v>
       </c>
       <c r="H90" s="9">
-        <v>0.67822800000000005</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>167</v>
+        <v>0.77685499999999996</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.68578499999999998</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
       <c r="D91" s="23">
-        <v>2893503.3638929999</v>
+        <v>2904190.5282370001</v>
       </c>
       <c r="E91" s="22">
-        <v>5.3899999999999998E-3</v>
+        <v>1.7799999999999999E-3</v>
       </c>
       <c r="F91" s="22">
-        <v>1.1734E-2</v>
+        <v>2.2061000000000001E-2</v>
       </c>
       <c r="G91" s="22">
-        <v>0.80419399999999996</v>
+        <v>0.74773299999999998</v>
       </c>
       <c r="H91" s="9">
-        <v>0.73522299999999996</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>169</v>
+        <v>0.79916699999999996</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.70663299999999996</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
       </c>
       <c r="D92" s="23">
-        <v>2894434.1653760001</v>
+        <v>2905105.0643830001</v>
       </c>
       <c r="E92" s="22">
-        <v>1.078E-2</v>
+        <v>1.3699999999999999E-3</v>
       </c>
       <c r="F92" s="22">
-        <v>1.206E-2</v>
+        <v>2.2383E-2</v>
       </c>
       <c r="G92" s="22">
-        <v>0.80695600000000001</v>
+        <v>0.74865099999999996</v>
       </c>
       <c r="H92" s="9">
-        <v>0.72380500000000003</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>171</v>
+        <v>0.79752500000000004</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.70214900000000002</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
       <c r="D93" s="23">
-        <v>2895081.568221</v>
+        <v>2905330.744707</v>
       </c>
       <c r="E93" s="22">
-        <v>1.078E-2</v>
+        <v>1.6900000000000001E-3</v>
       </c>
       <c r="F93" s="22">
-        <v>1.2286E-2</v>
+        <v>2.2463E-2</v>
       </c>
       <c r="G93" s="22">
-        <v>0.80687200000000003</v>
+        <v>0.75002899999999995</v>
       </c>
       <c r="H93" s="9">
-        <v>0.72432099999999999</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>173</v>
+        <v>0.79276100000000005</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.69333400000000001</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
       </c>
       <c r="D94" s="23">
-        <v>2895643.3125840002</v>
+        <v>2905907.4099110002</v>
       </c>
       <c r="E94" s="22">
-        <v>5.8799999999999998E-3</v>
+        <v>2.0500000000000002E-3</v>
       </c>
       <c r="F94" s="22">
-        <v>1.2482999999999999E-2</v>
+        <v>2.2665999999999999E-2</v>
       </c>
       <c r="G94" s="22">
-        <v>0.805307</v>
+        <v>0.77701600000000004</v>
       </c>
       <c r="H94" s="9">
-        <v>0.72908799999999996</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>175</v>
+        <v>0.74589799999999995</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.61227200000000004</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
       </c>
       <c r="D95" s="23">
-        <v>2896401.569838</v>
+        <v>2946723.4030160001</v>
       </c>
       <c r="E95" s="22">
-        <v>1.634E-2</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="F95" s="22">
-        <v>1.2748000000000001E-2</v>
+        <v>3.703E-2</v>
       </c>
       <c r="G95" s="22">
-        <v>0.78837199999999996</v>
+        <v>0.81752100000000005</v>
       </c>
       <c r="H95" s="9">
-        <v>0.76469600000000004</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>177</v>
+        <v>0.71107799999999999</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.50933499999999998</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
       <c r="D96" s="23">
-        <v>2896692.3305819998</v>
+        <v>3270197.8560080002</v>
       </c>
       <c r="E96" s="22">
-        <v>1.8419999999999999E-2</v>
+        <v>2.8740000000000002E-2</v>
       </c>
       <c r="F96" s="22">
-        <v>1.2848999999999999E-2</v>
+        <v>0.150869</v>
       </c>
       <c r="G96" s="22">
-        <v>0.83767800000000003</v>
+        <v>0.64996100000000001</v>
       </c>
       <c r="H96" s="9">
-        <v>0.67108599999999996</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>179</v>
+        <v>1.1363030000000001</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1.026521</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
       </c>
       <c r="D97" s="23">
-        <v>2897205.1563539999</v>
+        <v>3282502.212357</v>
       </c>
       <c r="E97" s="22">
-        <v>4.3899999999999998E-3</v>
+        <v>1.487E-2</v>
       </c>
       <c r="F97" s="22">
-        <v>1.3029000000000001E-2</v>
+        <v>0.155199</v>
       </c>
       <c r="G97" s="22">
-        <v>0.82417200000000002</v>
+        <v>0.64703299999999997</v>
       </c>
       <c r="H97" s="9">
-        <v>0.69334700000000005</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>181</v>
+        <v>1.1385160000000001</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1.0350649999999999</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
       </c>
       <c r="D98" s="23">
-        <v>2897485.1450519999</v>
+        <v>3287988.0840409999</v>
       </c>
       <c r="E98" s="22">
-        <v>1.1690000000000001E-2</v>
+        <v>5.0600000000000003E-3</v>
       </c>
       <c r="F98" s="22">
-        <v>1.3127E-2</v>
+        <v>0.15712999999999999</v>
       </c>
       <c r="G98" s="22">
-        <v>0.81503099999999995</v>
+        <v>0.63905400000000001</v>
       </c>
       <c r="H98" s="9">
-        <v>0.73819400000000002</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>66</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C99" t="b">
-        <v>1</v>
-      </c>
-      <c r="D99" s="23">
-        <v>2899083.7115219999</v>
-      </c>
-      <c r="E99" s="22">
-        <v>1.004E-2</v>
-      </c>
-      <c r="F99" s="22">
-        <v>1.3686E-2</v>
-      </c>
-      <c r="G99" s="22">
-        <v>0.83257199999999998</v>
-      </c>
-      <c r="H99" s="9">
-        <v>0.690357</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>29</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C100" t="b">
-        <v>1</v>
-      </c>
-      <c r="D100" s="23">
-        <v>2899512.661783</v>
-      </c>
-      <c r="E100" s="22">
-        <v>1.146E-2</v>
-      </c>
-      <c r="F100" s="22">
-        <v>1.3835999999999999E-2</v>
-      </c>
-      <c r="G100" s="22">
-        <v>0.81243399999999999</v>
-      </c>
-      <c r="H100" s="9">
-        <v>0.70943000000000001</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>69</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C101" t="b">
-        <v>1</v>
-      </c>
-      <c r="D101" s="23">
-        <v>2899512.8659560001</v>
-      </c>
-      <c r="E101" s="22">
-        <v>1.146E-2</v>
-      </c>
-      <c r="F101" s="22">
-        <v>1.3835999999999999E-2</v>
-      </c>
-      <c r="G101" s="22">
-        <v>0.812419</v>
-      </c>
-      <c r="H101" s="9">
-        <v>0.70950100000000005</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>189</v>
+        <v>1.1432910000000001</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1.0625150000000001</v>
       </c>
     </row>
   </sheetData>

--- a/maps/MO/MO20C_candidates.xlsx
+++ b/maps/MO/MO20C_candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/MO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BB070C-4D15-2F46-B670-DB5F44B74C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87439F55-1FC0-F741-8009-0A4F94742369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
